--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2422154.44465527</v>
+        <v>2415143.715539276</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791238</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>312.7494084287633</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>97.38566938412662</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>66.79782337412001</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>42.55675600596298</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.8477843580042</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>94.7797679192728</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>196.507951897476</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>151.7845974586416</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>99.39898830681793</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1023,13 +1023,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>22.78476950183072</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>55.99100827250065</v>
+        <v>93.25049749325713</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>50.8122017017154</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.35323812670225</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>42.76321480225744</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>220.4641411494252</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>34.49040930870602</v>
+        <v>69.2270660626113</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993877</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>39.21607961943359</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.2521685074231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372776</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.7701071136279</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>100.6675882927513</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087847</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>119.6452523356082</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938728</v>
@@ -1765,19 +1765,19 @@
         <v>112.2776261096562</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993862</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177836</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465747</v>
+        <v>82.92491162465745</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442474</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681687</v>
+        <v>95.49320096681686</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901675</v>
       </c>
       <c r="S16" t="n">
-        <v>25.78793570128451</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>77.02628521270431</v>
       </c>
       <c r="U16" t="n">
         <v>211.506091445786</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386976</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412916</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135892</v>
       </c>
       <c r="I20" t="n">
         <v>6.593776422875436</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838905</v>
+        <v>24.17382596574994</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828918</v>
+        <v>52.06849973565006</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043175</v>
+        <v>70.57601873167839</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459991</v>
+        <v>55.7231469819608</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643963</v>
+        <v>41.29686219380052</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931874</v>
+        <v>41.22330424667963</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908601</v>
+        <v>42.9727556664469</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147815</v>
+        <v>53.79159358883904</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805019</v>
+        <v>41.14384575541108</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922212</v>
+        <v>18.98356133658301</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367804</v>
+        <v>9.882059701038926</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920536</v>
+        <v>88.00800320656624</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412924</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325497</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>873.5528533767741</v>
+        <v>517.7252429274718</v>
       </c>
       <c r="C2" t="n">
-        <v>873.5528533767741</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="D2" t="n">
-        <v>873.5528533767741</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="E2" t="n">
-        <v>873.5528533767741</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.93208520796</v>
+        <v>1552.058346020846</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845422</v>
+        <v>2065.661024630534</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964323</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T2" t="n">
-        <v>1871.907137950054</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U2" t="n">
-        <v>1616.154408384652</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="V2" t="n">
-        <v>1274.047599088171</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="W2" t="n">
-        <v>1274.047599088171</v>
+        <v>1704.163302785211</v>
       </c>
       <c r="X2" t="n">
-        <v>1274.047599088171</v>
+        <v>1314.710697718268</v>
       </c>
       <c r="Y2" t="n">
-        <v>1274.047599088171</v>
+        <v>918.2199886388687</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021456</v>
+        <v>716.4374237795013</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622378</v>
+        <v>565.7831933395935</v>
       </c>
       <c r="D3" t="n">
-        <v>437.6866385994903</v>
+        <v>435.6942259610738</v>
       </c>
       <c r="E3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284343</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="L3" t="n">
-        <v>640.1767275127957</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1120.003902136677</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1658.26268714677</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737751</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737751</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1940.231660716792</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1763.247848915701</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1553.184705594342</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1330.644703965409</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1100.527458098696</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675997</v>
+        <v>911.2203804487081</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431069</v>
+        <v>868.2337582204626</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>502.1700734452587</v>
+        <v>270.3348114316574</v>
       </c>
       <c r="C4" t="n">
-        <v>502.1700734452587</v>
+        <v>270.3348114316574</v>
       </c>
       <c r="D4" t="n">
-        <v>502.1700734452587</v>
+        <v>270.3348114316574</v>
       </c>
       <c r="E4" t="n">
-        <v>502.1700734452587</v>
+        <v>270.3348114316574</v>
       </c>
       <c r="F4" t="n">
-        <v>344.8441386582316</v>
+        <v>270.3348114316574</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576771</v>
+        <v>270.3348114316574</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="W4" t="n">
-        <v>661.6122798674851</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="X4" t="n">
-        <v>661.6122798674851</v>
+        <v>270.3348114316574</v>
       </c>
       <c r="Y4" t="n">
-        <v>661.6122798674851</v>
+        <v>270.3348114316574</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>458.6475467930354</v>
+        <v>63.47963265754942</v>
       </c>
       <c r="C5" t="n">
-        <v>65.47204529596597</v>
+        <v>63.47963265754942</v>
       </c>
       <c r="D5" t="n">
-        <v>65.47204529596597</v>
+        <v>63.47963265754942</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596597</v>
+        <v>63.47963265754942</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634779</v>
+        <v>50.62559822793124</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>259.729887573696</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>259.729887573696</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>773.3325661833845</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845422</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737751</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964323</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964323</v>
+        <v>1876.669457112402</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398922</v>
+        <v>1620.916727547001</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.41696210244</v>
+        <v>1620.916727547001</v>
       </c>
       <c r="W5" t="n">
-        <v>1001.417927070728</v>
+        <v>1249.917692515288</v>
       </c>
       <c r="X5" t="n">
-        <v>611.9653220037845</v>
+        <v>860.4650874483452</v>
       </c>
       <c r="Y5" t="n">
-        <v>458.6475467930354</v>
+        <v>463.9743783689463</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>691.1234630814495</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>540.4692326415417</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>440.0662141498064</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284343</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>407.9705203262583</v>
       </c>
       <c r="N6" t="n">
-        <v>2036.433443595208</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737751</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737751</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734592</v>
+        <v>1874.261482913896</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1664.198339592538</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1441.658337963605</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1211.541092096892</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1022.234014446904</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>842.9197975224108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>423.7848383464424</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="C7" t="n">
-        <v>423.7848383464424</v>
+        <v>303.9497223672537</v>
       </c>
       <c r="D7" t="n">
-        <v>423.7848383464424</v>
+        <v>303.9497223672537</v>
       </c>
       <c r="E7" t="n">
-        <v>423.7848383464424</v>
+        <v>303.9497223672537</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338155</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>423.7848383464424</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V7" t="n">
-        <v>423.7848383464424</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="W7" t="n">
-        <v>423.7848383464424</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="X7" t="n">
-        <v>423.7848383464424</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="Y7" t="n">
-        <v>423.7848383464424</v>
+        <v>474.1548403012645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>462.464857499824</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="C8" t="n">
-        <v>69.28935600275456</v>
+        <v>1716.72027401471</v>
       </c>
       <c r="D8" t="n">
-        <v>69.28935600275456</v>
+        <v>1331.279145231377</v>
       </c>
       <c r="E8" t="n">
-        <v>69.28935600275456</v>
+        <v>928.6956203479217</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>511.8011818778995</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>98.6384263659026</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>98.6384263659026</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1096.945999082414</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.757282719876</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
         <v>2017.461012945658</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.902861797301</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>1729.796052500819</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W8" t="n">
-        <v>1358.797017469107</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="X8" t="n">
-        <v>1259.45031229062</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="Y8" t="n">
-        <v>862.9596032112208</v>
+        <v>2109.895775511779</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>632.8109751081458</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1218.308980114748</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1734.829262705729</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2140.450631422126</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.1412496659556</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>665.4295905742738</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X10" t="n">
-        <v>431.3492683572568</v>
+        <v>440.630149218911</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.3492683572568</v>
+        <v>217.5180880355544</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>1470.676576838057</v>
       </c>
       <c r="C11" t="n">
-        <v>1149.297350487181</v>
+        <v>1149.297350487182</v>
       </c>
       <c r="D11" t="n">
-        <v>835.6524968500429</v>
+        <v>1149.297350487182</v>
       </c>
       <c r="E11" t="n">
-        <v>504.8652471127813</v>
+        <v>818.5101007499201</v>
       </c>
       <c r="F11" t="n">
-        <v>504.8652471127813</v>
+        <v>473.4119374260918</v>
       </c>
       <c r="G11" t="n">
-        <v>163.4987667469783</v>
+        <v>132.0454570602888</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>497.3392809709729</v>
+        <v>509.9602217740418</v>
       </c>
       <c r="C13" t="n">
-        <v>398.9304381831561</v>
+        <v>411.5513789862249</v>
       </c>
       <c r="D13" t="n">
-        <v>315.0936002318646</v>
+        <v>411.5513789862249</v>
       </c>
       <c r="E13" t="n">
-        <v>231.331063237261</v>
+        <v>327.7888419916213</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>242.2591823507882</v>
       </c>
       <c r="G13" t="n">
         <v>145.8014035964277</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1405.015725957488</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128935</v>
+        <v>1405.015725957488</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.16734851703</v>
+        <v>1191.373209345583</v>
       </c>
       <c r="V13" t="n">
-        <v>1119.16734851703</v>
+        <v>997.1901393126006</v>
       </c>
       <c r="W13" t="n">
-        <v>907.6332215944014</v>
+        <v>785.6560123899721</v>
       </c>
       <c r="X13" t="n">
-        <v>745.3491745235784</v>
+        <v>623.3719653191491</v>
       </c>
       <c r="Y13" t="n">
-        <v>610.7510245160804</v>
+        <v>623.3719653191491</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406337</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1711.843491816803</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418323</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572337</v>
+        <v>722.3132251185751</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914309</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654567</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>3004.271952586836</v>
       </c>
       <c r="V14" t="n">
-        <v>2740.928571142733</v>
+        <v>3004.271952586836</v>
       </c>
       <c r="W14" t="n">
-        <v>2740.928571142733</v>
+        <v>3004.271952586836</v>
       </c>
       <c r="X14" t="n">
-        <v>2620.074780904745</v>
+        <v>2686.615622666086</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.38034697154</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="15">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>411.7059410452037</v>
+        <v>340.7482862408963</v>
       </c>
       <c r="C16" t="n">
-        <v>411.7059410452037</v>
+        <v>242.3394434530795</v>
       </c>
       <c r="D16" t="n">
-        <v>327.8691030939125</v>
+        <v>242.3394434530795</v>
       </c>
       <c r="E16" t="n">
-        <v>244.106566099309</v>
+        <v>158.576906458476</v>
       </c>
       <c r="F16" t="n">
         <v>158.576906458476</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581894</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027739</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118227</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138165</v>
+        <v>999.6269248138166</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1470.684221914221</v>
+        <v>1313.608118922023</v>
       </c>
       <c r="T16" t="n">
-        <v>1306.761445228649</v>
+        <v>1235.803790424342</v>
       </c>
       <c r="U16" t="n">
-        <v>1093.118928616744</v>
+        <v>1022.161273812437</v>
       </c>
       <c r="V16" t="n">
-        <v>898.9358585837623</v>
+        <v>827.9782037794549</v>
       </c>
       <c r="W16" t="n">
-        <v>687.4017316611339</v>
+        <v>616.4440768568265</v>
       </c>
       <c r="X16" t="n">
-        <v>525.117684590311</v>
+        <v>454.1600297860036</v>
       </c>
       <c r="Y16" t="n">
-        <v>525.117684590311</v>
+        <v>454.1600297860036</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099316</v>
@@ -5507,16 +5507,16 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5607,10 +5607,10 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,19 +5677,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960402</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343043</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655135</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072216</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838002</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099306</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5847,7 +5847,7 @@
         <v>2262.088962721623</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5923,13 +5923,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6084,7 +6084,7 @@
         <v>2262.088962721623</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6139,28 +6139,28 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958364</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343939</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118093</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485128</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6257,19 +6257,19 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6361,19 +6361,19 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
@@ -6388,10 +6388,10 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485128</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286449</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835518</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.04615434972</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.220382508752</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146214</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038543</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897135</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>2269.517383258269</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>2269.517383258269</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996514</v>
+        <v>365.6713676929724</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918676</v>
+        <v>309.3853606404867</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245266</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123137</v>
+        <v>226.0316571652543</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.289890240723</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374211</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K34" t="n">
-        <v>256.6556820777736</v>
+        <v>261.0422972872698</v>
       </c>
       <c r="L34" t="n">
-        <v>526.0564146786435</v>
+        <v>425.1699371610696</v>
       </c>
       <c r="M34" t="n">
-        <v>817.6210857439776</v>
+        <v>723.1136360743164</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.083812502257</v>
+        <v>982.3291861103373</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600016</v>
+        <v>1145.033953152045</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376595</v>
+        <v>1264.910118928624</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250197</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273691</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400718</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045801</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027486</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7026,7 +7026,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
         <v>2380.454662679751</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229859</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7205,7 +7205,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7266,10 +7266,10 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7336,22 +7336,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,16 +7442,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7494,19 +7494,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,49 +7570,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>273.0105384364861</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102859</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485499</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797591</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7658,7 +7658,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,13 +7667,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7737,13 +7737,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1606.310991511064</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222421</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960418</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343059</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655151</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072231</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838017</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,13 +7985,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>464.0015950999639</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>159.1611234709538</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>577.0610358108078</v>
+        <v>611.1777065035427</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886043</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>493.196514728581</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>363.4893534998006</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321648</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N5" t="n">
-        <v>306.7311214244053</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837495</v>
+        <v>348.2985274535467</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886043</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O6" t="n">
-        <v>232.434554992467</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>251.5450406822918</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>546.2342719955939</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8529,13 +8529,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>318.4607528074838</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -9255,13 +9255,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9495,10 +9495,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>206.6446779083334</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9732,10 +9732,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>206.6446779083334</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -10443,10 +10443,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>206.6446779083334</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449332</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10604,7 +10604,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10674,10 +10674,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
@@ -10914,13 +10914,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,22 +11142,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>403.0555909137002</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11385,16 +11385,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>228.1998931286865</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>215.2734982257363</v>
+        <v>180.536841471831</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>90.49353096511055</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.55045966936805</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372778</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362789</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214454</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750153</v>
+        <v>81.44930158226401</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087847</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>194.8345142859335</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993863</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177834</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442472</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338892</v>
+        <v>82.8454531333889</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456085</v>
+        <v>60.68516871456083</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901676</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>103.9216748832596</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>85.25726370601184</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637436.0936976018</v>
+        <v>637436.0936976019</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637436.0936976022</v>
+        <v>637436.0936976023</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>721328.7123734269</v>
+        <v>721328.7123734268</v>
       </c>
     </row>
     <row r="8">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540996.5342800703</v>
+        <v>540996.5342800701</v>
       </c>
       <c r="C2" t="n">
-        <v>540996.5342800705</v>
+        <v>540996.53428007</v>
       </c>
       <c r="D2" t="n">
-        <v>540996.5342800705</v>
+        <v>540996.5342800706</v>
       </c>
       <c r="E2" t="n">
-        <v>478077.0702732016</v>
+        <v>478077.0702732021</v>
       </c>
       <c r="F2" t="n">
         <v>478077.0702732022</v>
@@ -26332,28 +26332,28 @@
         <v>540996.5342800705</v>
       </c>
       <c r="I2" t="n">
-        <v>540996.5342800705</v>
+        <v>540996.5342800706</v>
       </c>
       <c r="J2" t="n">
         <v>540996.534280071</v>
       </c>
       <c r="K2" t="n">
-        <v>540996.5342800712</v>
+        <v>540996.534280071</v>
       </c>
       <c r="L2" t="n">
+        <v>540996.5342800709</v>
+      </c>
+      <c r="M2" t="n">
+        <v>540996.5342800707</v>
+      </c>
+      <c r="N2" t="n">
+        <v>540996.5342800705</v>
+      </c>
+      <c r="O2" t="n">
+        <v>540996.5342800706</v>
+      </c>
+      <c r="P2" t="n">
         <v>540996.5342800702</v>
-      </c>
-      <c r="M2" t="n">
-        <v>540996.5342800703</v>
-      </c>
-      <c r="N2" t="n">
-        <v>540996.5342800706</v>
-      </c>
-      <c r="O2" t="n">
-        <v>540996.5342800702</v>
-      </c>
-      <c r="P2" t="n">
-        <v>540996.5342800705</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.3255366819</v>
+        <v>47425.32553668186</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728534</v>
+        <v>62456.24177539661</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962297</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243103</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243103</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373742</v>
+        <v>74084.49552373751</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373757</v>
+        <v>74084.4955237376</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
@@ -26436,7 +26436,7 @@
         <v>121843.4120153196</v>
       </c>
       <c r="I4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="J4" t="n">
         <v>122593.9044797028</v>
@@ -26445,7 +26445,7 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,16 +26488,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315424</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124901.1816238902</v>
+        <v>128049.5322106642</v>
       </c>
       <c r="C6" t="n">
-        <v>307106.1299157464</v>
+        <v>301908.1892447192</v>
       </c>
       <c r="D6" t="n">
-        <v>302242.8476218713</v>
+        <v>294506.5583984797</v>
       </c>
       <c r="E6" t="n">
-        <v>238683.9935755792</v>
+        <v>238474.26202889</v>
       </c>
       <c r="F6" t="n">
-        <v>350806.555049624</v>
+        <v>350596.8235029344</v>
       </c>
       <c r="G6" t="n">
-        <v>313558.0274125493</v>
+        <v>313558.0274125494</v>
       </c>
       <c r="H6" t="n">
         <v>360983.3529492312</v>
@@ -26543,25 +26543,25 @@
         <v>360983.3529492312</v>
       </c>
       <c r="J6" t="n">
-        <v>147941.435351946</v>
+        <v>154457.7205065193</v>
       </c>
       <c r="K6" t="n">
         <v>354743.5845464487</v>
       </c>
       <c r="L6" t="n">
-        <v>299560.9956118269</v>
+        <v>295512.1584013554</v>
       </c>
       <c r="M6" t="n">
-        <v>318782.523489608</v>
+        <v>317730.8284784202</v>
       </c>
       <c r="N6" t="n">
-        <v>360983.3529492312</v>
+        <v>360983.3529492311</v>
       </c>
       <c r="O6" t="n">
-        <v>333215.6589064596</v>
+        <v>333215.65890646</v>
       </c>
       <c r="P6" t="n">
-        <v>360983.3529492312</v>
+        <v>360983.3529492309</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293141</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085233</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660668</v>
+        <v>78.07030221924576</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551359</v>
+        <v>17.58004954287453</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407221</v>
+        <v>117.126871304279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085233</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>76.49433805333541</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>123.8799270320509</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>61.99025433061445</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>134.9643187492849</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.5081541463841</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27546,13 +27546,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>59.14399760884815</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,10 +27597,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>24.75764451870151</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>240.7412045299633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>29.38908939791654</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>185.1777423863139</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,13 +27783,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>99.76166716665612</v>
+        <v>62.50217794589965</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,16 +27822,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>86.14154403674442</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>287.2048408895715</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>125.7398519524132</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.2753778454215</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473204</v>
+        <v>71.07831239473205</v>
       </c>
     </row>
     <row r="17">
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634528353</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,17 +29217,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.636002634529092</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.272237659013</v>
+        <v>30.27223765901209</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>30.27223765901306</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>48.65992738833461</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>43.49509683160164</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>76.79385455031485</v>
       </c>
       <c r="O34" t="n">
-        <v>94.97643844045592</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,28 +30165,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668742</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30408,25 +30408,25 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,46 +30615,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O43" t="n">
-        <v>5.636002634527671</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,34 +30852,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634529945</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,13 +34705,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>314.2765435022367</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>9.597286046857445</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6739137614958</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344376</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>400.5089558396921</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>220.4309503205632</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N5" t="n">
-        <v>157.6126300866212</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344376</v>
+        <v>255.9114054042348</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O6" t="n">
-        <v>139.7469961035781</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>98.29687095180005</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.6704345714974</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>227.4725996515698</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257297</v>
+        <v>41.00382492257298</v>
       </c>
       <c r="K16" t="n">
         <v>153.739970081542</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488452</v>
+        <v>74.53507640488453</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35975,13 +35975,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565483</v>
+        <v>171.4214974565488</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>119.5613130890187</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681488</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>119.5613130890187</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133907</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,7 +36531,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>156.7975262446462</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907926</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36610,13 +36610,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039242</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261597</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044895</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682817</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>600.1759880394261</v>
+        <v>664.2959804238013</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,10 +37084,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>230.2077838426608</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>261.8338889252736</v>
       </c>
       <c r="O34" t="n">
-        <v>259.3246879775348</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37394,10 +37394,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634528348</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37479,10 +37479,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37634,13 +37634,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716074</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462355</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>310.6684688643883</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716065</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449122</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38105,16 +38105,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133992</v>
+        <v>88.29766032133878</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38193,7 +38193,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257368</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
